--- a/spring_and_jxls/target/classes/templates/test.xlsx
+++ b/spring_and_jxls/target/classes/templates/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\spring-boot-swagger-3-example-master\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD9FE5-36B9-49BE-B94D-5B87A3BD4DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74C7BC5-45FE-4D7F-902C-81A7551AE300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,14 +34,17 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ray0305:</t>
+          <t>jx:area(lastCell="E5")</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{143D1388-8AEA-4536-94BD-B3A446E1B65F}">
+      <text>
         <r>
           <rPr>
             <sz val="9"/>
@@ -49,32 +52,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="E5")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{143D1388-8AEA-4536-94BD-B3A446E1B65F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ray0305:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(items="userList" var="user" lastCell="E4")</t>
+          <t>jx:each(items="userList" var="user" lastCell="E4")</t>
         </r>
       </text>
     </comment>
@@ -141,7 +119,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -226,7 +197,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -238,14 +209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -545,13 +516,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -583,7 +554,7 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
